--- a/Code/Results/Cases/Case_0_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_235/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.22162213727804</v>
+        <v>4.91766526950903</v>
       </c>
       <c r="D2">
-        <v>3.28890399457793</v>
+        <v>4.981210237019123</v>
       </c>
       <c r="E2">
-        <v>10.49263969280978</v>
+        <v>10.48592781916091</v>
       </c>
       <c r="F2">
-        <v>26.16773844345108</v>
+        <v>27.83069089757192</v>
       </c>
       <c r="G2">
-        <v>37.68366139378699</v>
+        <v>35.48657044786039</v>
       </c>
       <c r="H2">
-        <v>11.20753791040984</v>
+        <v>15.47493534562134</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.23919240235222</v>
+        <v>13.9202465219519</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.98759528578443</v>
+        <v>15.64267658331061</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.709197014294982</v>
+        <v>4.749957266423106</v>
       </c>
       <c r="D3">
-        <v>3.377062588187583</v>
+        <v>5.001471611759303</v>
       </c>
       <c r="E3">
-        <v>9.947918338987744</v>
+        <v>10.4052058710073</v>
       </c>
       <c r="F3">
-        <v>25.02867424505798</v>
+        <v>27.71133405364528</v>
       </c>
       <c r="G3">
-        <v>35.79442880037338</v>
+        <v>35.2015840284863</v>
       </c>
       <c r="H3">
-        <v>11.00677766065188</v>
+        <v>15.50583129137171</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.84144918939145</v>
+        <v>13.39447410288986</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.69951406272094</v>
+        <v>15.347152538532</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.378403104244064</v>
+        <v>4.645541737644154</v>
       </c>
       <c r="D4">
-        <v>3.431680830482885</v>
+        <v>5.01445172421634</v>
       </c>
       <c r="E4">
-        <v>9.61425115983684</v>
+        <v>10.35945688099465</v>
       </c>
       <c r="F4">
-        <v>24.34362120626239</v>
+        <v>27.64905176804063</v>
       </c>
       <c r="G4">
-        <v>34.65109096145845</v>
+        <v>35.04295172079882</v>
       </c>
       <c r="H4">
-        <v>10.89696998963377</v>
+        <v>15.52924793218144</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.93791012063857</v>
+        <v>13.06341005362698</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.86867159272429</v>
+        <v>15.16689637838861</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.239477624217665</v>
+        <v>4.602705024714634</v>
       </c>
       <c r="D5">
-        <v>3.454080815061058</v>
+        <v>5.019877539076165</v>
       </c>
       <c r="E5">
-        <v>9.478593737339772</v>
+        <v>10.34178744332683</v>
       </c>
       <c r="F5">
-        <v>24.06831322178982</v>
+        <v>27.62644938766646</v>
       </c>
       <c r="G5">
-        <v>34.18983085237051</v>
+        <v>34.98247488134486</v>
       </c>
       <c r="H5">
-        <v>10.85548897182561</v>
+        <v>15.53990236918454</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.55822061839202</v>
+        <v>12.9266404698908</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.51992088457092</v>
+        <v>15.09384459039849</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.216158360945348</v>
+        <v>4.595577051027535</v>
       </c>
       <c r="D6">
-        <v>3.457809496873172</v>
+        <v>5.020786743458962</v>
       </c>
       <c r="E6">
-        <v>9.45609087828006</v>
+        <v>10.33891262976668</v>
       </c>
       <c r="F6">
-        <v>24.02283940482224</v>
+        <v>27.62286430446181</v>
       </c>
       <c r="G6">
-        <v>34.11353565520761</v>
+        <v>34.97268584087993</v>
       </c>
       <c r="H6">
-        <v>10.848794765</v>
+        <v>15.54173850351284</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.49447709759317</v>
+        <v>12.90382440756847</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.46139304845273</v>
+        <v>15.08174182828547</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.376546282935378</v>
+        <v>4.644965082115554</v>
       </c>
       <c r="D7">
-        <v>3.431982321321392</v>
+        <v>5.014524345904699</v>
       </c>
       <c r="E7">
-        <v>9.612420188034298</v>
+        <v>10.3592146251435</v>
       </c>
       <c r="F7">
-        <v>24.33989233585426</v>
+        <v>27.64873568477811</v>
       </c>
       <c r="G7">
-        <v>34.6448507001405</v>
+        <v>35.0421191713755</v>
       </c>
       <c r="H7">
-        <v>10.8963974978495</v>
+        <v>15.52938712782382</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.93283612943526</v>
+        <v>13.06157275761199</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.86400957864683</v>
+        <v>15.16590940363769</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.04825540056489</v>
+        <v>4.860182722848325</v>
       </c>
       <c r="D8">
-        <v>3.319211738678687</v>
+        <v>4.988084759980606</v>
       </c>
       <c r="E8">
-        <v>10.30471409596048</v>
+        <v>10.4573125119656</v>
       </c>
       <c r="F8">
-        <v>25.77215324620714</v>
+        <v>27.78726122191241</v>
       </c>
       <c r="G8">
-        <v>37.0290514008492</v>
+        <v>35.38495032769522</v>
       </c>
       <c r="H8">
-        <v>11.13545334373829</v>
+        <v>15.48466185658723</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.76659420085647</v>
+        <v>13.74079103139953</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.55167535444057</v>
+        <v>15.54059306191339</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.240119282964967</v>
+        <v>5.267738042052621</v>
       </c>
       <c r="D9">
-        <v>3.101035236591748</v>
+        <v>4.940488939000141</v>
       </c>
       <c r="E9">
-        <v>11.66533711809778</v>
+        <v>10.67920840921199</v>
       </c>
       <c r="F9">
-        <v>28.68582491826287</v>
+        <v>28.14548059683442</v>
       </c>
       <c r="G9">
-        <v>41.82119511987978</v>
+        <v>36.1839983430492</v>
       </c>
       <c r="H9">
-        <v>11.71600825817627</v>
+        <v>15.43249172665903</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.0081972229714</v>
+        <v>14.99910741710948</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.55079171930819</v>
+        <v>16.28037867574993</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.043698459968578</v>
+        <v>5.5546926282475</v>
       </c>
       <c r="D10">
-        <v>2.94129178033701</v>
+        <v>4.908072414760643</v>
       </c>
       <c r="E10">
-        <v>12.7937359148833</v>
+        <v>10.85910260573028</v>
       </c>
       <c r="F10">
-        <v>30.88327090414221</v>
+        <v>28.46012086738486</v>
       </c>
       <c r="G10">
-        <v>45.40149329418007</v>
+        <v>36.84364840893138</v>
       </c>
       <c r="H10">
-        <v>12.2172853390971</v>
+        <v>15.41614870333955</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26.18230086966802</v>
+        <v>15.86909682558553</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.57551943613806</v>
+        <v>16.82114963420917</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.394676670870998</v>
+        <v>5.681877156237681</v>
       </c>
       <c r="D11">
-        <v>2.868481895104371</v>
+        <v>4.893871097228104</v>
       </c>
       <c r="E11">
-        <v>13.34394693890646</v>
+        <v>10.94432587644875</v>
       </c>
       <c r="F11">
-        <v>31.89523711055344</v>
+        <v>28.61405297996716</v>
       </c>
       <c r="G11">
-        <v>47.04355934590054</v>
+        <v>37.15832541869133</v>
       </c>
       <c r="H11">
-        <v>12.46300242038473</v>
+        <v>15.41354719884832</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>27.12854988087405</v>
+        <v>16.25140000652258</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.46050998110773</v>
+        <v>17.06539615097843</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.525585020106366</v>
+        <v>5.729510222182395</v>
       </c>
       <c r="D12">
-        <v>2.840871899434264</v>
+        <v>4.888571194436159</v>
       </c>
       <c r="E12">
-        <v>13.55054157555889</v>
+        <v>10.97705952591981</v>
       </c>
       <c r="F12">
-        <v>32.28032495219635</v>
+        <v>28.67385774059125</v>
       </c>
       <c r="G12">
-        <v>47.66752056100322</v>
+        <v>37.27947594673374</v>
       </c>
       <c r="H12">
-        <v>12.55872008555165</v>
+        <v>15.41326105425813</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.48093469583537</v>
+        <v>16.39411895405599</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.79070172384102</v>
+        <v>17.15754221056843</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.497478850798059</v>
+        <v>5.71927580344021</v>
       </c>
       <c r="D13">
-        <v>2.846820167276663</v>
+        <v>4.889709170673998</v>
       </c>
       <c r="E13">
-        <v>13.5061219614235</v>
+        <v>10.96998964878853</v>
       </c>
       <c r="F13">
-        <v>32.19730316398358</v>
+        <v>28.66091104365029</v>
       </c>
       <c r="G13">
-        <v>47.53303852935723</v>
+        <v>37.25329735459663</v>
       </c>
       <c r="H13">
-        <v>12.53798465031975</v>
+        <v>15.41329153491908</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.40530283993782</v>
+        <v>16.36347476816032</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.71980416733482</v>
+        <v>17.13771366793912</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.40548606478912</v>
+        <v>5.685806807495501</v>
       </c>
       <c r="D14">
-        <v>2.866211266463644</v>
+        <v>4.893433514410085</v>
       </c>
       <c r="E14">
-        <v>13.3609774279596</v>
+        <v>10.9470097972781</v>
       </c>
       <c r="F14">
-        <v>31.9268799349817</v>
+        <v>28.61894304857505</v>
       </c>
       <c r="G14">
-        <v>47.09484811435645</v>
+        <v>37.16825332965002</v>
       </c>
       <c r="H14">
-        <v>12.47082288249237</v>
+        <v>15.41350962779007</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>27.15765852462588</v>
+        <v>16.26318329147532</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.48777240666086</v>
+        <v>17.07298448699154</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.348880463650689</v>
+        <v>5.665235897227967</v>
       </c>
       <c r="D15">
-        <v>2.878083385248725</v>
+        <v>4.895724901587974</v>
       </c>
       <c r="E15">
-        <v>13.27185050638933</v>
+        <v>10.93299328311882</v>
       </c>
       <c r="F15">
-        <v>31.76148723780232</v>
+        <v>28.59343238059135</v>
       </c>
       <c r="G15">
-        <v>46.82673285648005</v>
+        <v>37.11641709587658</v>
       </c>
       <c r="H15">
-        <v>12.43003607376937</v>
+        <v>15.41373435449048</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>27.00520245700822</v>
+        <v>16.20148160561455</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.34501156988246</v>
+        <v>17.03328842200239</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.020475945510894</v>
+        <v>5.54630922783429</v>
       </c>
       <c r="D16">
-        <v>2.946045607488053</v>
+        <v>4.909011425334687</v>
       </c>
       <c r="E16">
-        <v>12.75751922770123</v>
+        <v>10.85359906971116</v>
       </c>
       <c r="F16">
-        <v>30.8173915150288</v>
+        <v>28.45027512648164</v>
       </c>
       <c r="G16">
-        <v>45.29446482514198</v>
+        <v>36.82336800814757</v>
       </c>
       <c r="H16">
-        <v>12.20159355239743</v>
+        <v>15.41641632538449</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.11961815484064</v>
+        <v>15.84383134215997</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.51697825515559</v>
+        <v>16.80514424160112</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.81534309541733</v>
+        <v>5.472457812792284</v>
       </c>
       <c r="D17">
-        <v>2.987688123760597</v>
+        <v>4.917301493425963</v>
       </c>
       <c r="E17">
-        <v>12.43861020137201</v>
+        <v>10.80574317917611</v>
       </c>
       <c r="F17">
-        <v>30.2414234699233</v>
+        <v>28.36519254879121</v>
       </c>
       <c r="G17">
-        <v>44.35799990097482</v>
+        <v>36.64725449129129</v>
       </c>
       <c r="H17">
-        <v>12.06606714366761</v>
+        <v>15.41930250245697</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.56552991723674</v>
+        <v>15.62088998440122</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.99993831296856</v>
+        <v>16.66466874167432</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.695978028614022</v>
+        <v>5.429667316516912</v>
       </c>
       <c r="D18">
-        <v>3.011627402182427</v>
+        <v>4.922121063438701</v>
       </c>
       <c r="E18">
-        <v>12.25386836212514</v>
+        <v>10.77853830612198</v>
       </c>
       <c r="F18">
-        <v>29.91129125478615</v>
+        <v>28.31727451797794</v>
       </c>
       <c r="G18">
-        <v>43.82060524766179</v>
+        <v>36.54733976466785</v>
       </c>
       <c r="H18">
-        <v>11.98977221728429</v>
+        <v>15.42141725629032</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.24279404636442</v>
+        <v>15.49139900580424</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.69913893661066</v>
+        <v>16.58371121555008</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.655323607755511</v>
+        <v>5.415126929429929</v>
       </c>
       <c r="D19">
-        <v>3.019731301187829</v>
+        <v>4.923761722351537</v>
       </c>
       <c r="E19">
-        <v>12.19108599814251</v>
+        <v>10.76938302883797</v>
       </c>
       <c r="F19">
-        <v>29.79970993679312</v>
+        <v>28.30122647365365</v>
       </c>
       <c r="G19">
-        <v>43.63886066420093</v>
+        <v>36.51375082361067</v>
       </c>
       <c r="H19">
-        <v>11.9642208689325</v>
+        <v>15.42221123990687</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.13282154897761</v>
+        <v>15.44734278536472</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.59670029923816</v>
+        <v>16.5562758568201</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.83732179739919</v>
+        <v>5.480352184949506</v>
       </c>
       <c r="D20">
-        <v>2.98325663068478</v>
+        <v>4.916413691974392</v>
       </c>
       <c r="E20">
-        <v>12.4726930636161</v>
+        <v>10.81080452603761</v>
       </c>
       <c r="F20">
-        <v>30.30261684523428</v>
+        <v>28.37414452032138</v>
       </c>
       <c r="G20">
-        <v>44.4575592567764</v>
+        <v>36.66585991647314</v>
       </c>
       <c r="H20">
-        <v>12.08032186445558</v>
+        <v>15.41894817358552</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.62493013560857</v>
+        <v>15.64475386840001</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.05532946686535</v>
+        <v>16.67963981721618</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.432560023992187</v>
+        <v>5.695652165269989</v>
       </c>
       <c r="D21">
-        <v>2.860516801671887</v>
+        <v>4.892337476540636</v>
       </c>
       <c r="E21">
-        <v>13.4036556463537</v>
+        <v>10.95374722449255</v>
       </c>
       <c r="F21">
-        <v>32.00625750672955</v>
+        <v>28.63122930738495</v>
       </c>
       <c r="G21">
-        <v>47.22349439195905</v>
+        <v>37.19317974024659</v>
       </c>
       <c r="H21">
-        <v>12.49047637737152</v>
+        <v>15.41342656905441</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>27.23055704564916</v>
+        <v>16.2926978360271</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.5560575332049</v>
+        <v>17.09200708926662</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.809980391819998</v>
+        <v>5.833261995476451</v>
       </c>
       <c r="D22">
-        <v>2.780069507567654</v>
+        <v>4.877055668516155</v>
       </c>
       <c r="E22">
-        <v>14.00197533255557</v>
+        <v>11.04984548787285</v>
       </c>
       <c r="F22">
-        <v>33.1307523153201</v>
+        <v>28.80805305536169</v>
       </c>
       <c r="G22">
-        <v>49.08150868806969</v>
+        <v>37.54935349740733</v>
       </c>
       <c r="H22">
-        <v>12.77416895228013</v>
+        <v>15.41389359106364</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.24542617622918</v>
+        <v>16.70416907378566</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.50824535035332</v>
+        <v>17.3594636580484</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.609571115710299</v>
+        <v>5.760114897520202</v>
       </c>
       <c r="D23">
-        <v>2.823031731512702</v>
+        <v>4.88517055329105</v>
       </c>
       <c r="E23">
-        <v>13.68348282561145</v>
+        <v>10.99831990277388</v>
       </c>
       <c r="F23">
-        <v>32.52951550843737</v>
+        <v>28.71288724592813</v>
       </c>
       <c r="G23">
-        <v>48.0735235902635</v>
+        <v>37.35823869862158</v>
       </c>
       <c r="H23">
-        <v>12.62128049721822</v>
+        <v>15.41327022344375</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.7068518413904</v>
+        <v>16.48569114790169</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.00257247534758</v>
+        <v>17.21693393928913</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.827389692044481</v>
+        <v>5.476784170865815</v>
       </c>
       <c r="D24">
-        <v>2.98526011214361</v>
+        <v>4.916814900296074</v>
       </c>
       <c r="E24">
-        <v>12.45728856883817</v>
+        <v>10.80851532946083</v>
       </c>
       <c r="F24">
-        <v>30.27494821366588</v>
+        <v>28.37009422524315</v>
       </c>
       <c r="G24">
-        <v>44.4125453984277</v>
+        <v>36.65744423617966</v>
       </c>
       <c r="H24">
-        <v>12.07387226549859</v>
+        <v>15.41910694724643</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.59808834202182</v>
+        <v>15.63396910598044</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.03029819049013</v>
+        <v>16.67287199826606</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.930681656827416</v>
+        <v>5.159434407370208</v>
       </c>
       <c r="D25">
-        <v>3.15987055183636</v>
+        <v>4.952913842013427</v>
       </c>
       <c r="E25">
-        <v>11.29723227782791</v>
+        <v>10.6161283301143</v>
       </c>
       <c r="F25">
-        <v>27.88734977328181</v>
+        <v>28.03942208005284</v>
       </c>
       <c r="G25">
-        <v>40.51398010287487</v>
+        <v>35.95471248876668</v>
       </c>
       <c r="H25">
-        <v>11.54629932363499</v>
+        <v>15.44276557783166</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.16838689957527</v>
+        <v>14.66765119747791</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.77167022876948</v>
+        <v>16.08032061652337</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_235/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_235/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.91766526950903</v>
+        <v>7.221622137278061</v>
       </c>
       <c r="D2">
-        <v>4.981210237019123</v>
+        <v>3.288903994577794</v>
       </c>
       <c r="E2">
-        <v>10.48592781916091</v>
+        <v>10.49263969280973</v>
       </c>
       <c r="F2">
-        <v>27.83069089757192</v>
+        <v>26.16773844345122</v>
       </c>
       <c r="G2">
-        <v>35.48657044786039</v>
+        <v>37.68366139378724</v>
       </c>
       <c r="H2">
-        <v>15.47493534562134</v>
+        <v>11.20753791040987</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.9202465219519</v>
+        <v>21.2391924023522</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.64267658331061</v>
+        <v>18.98759528578445</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749957266423106</v>
+        <v>6.709197014295026</v>
       </c>
       <c r="D3">
-        <v>5.001471611759303</v>
+        <v>3.377062588187576</v>
       </c>
       <c r="E3">
-        <v>10.4052058710073</v>
+        <v>9.947918338987757</v>
       </c>
       <c r="F3">
-        <v>27.71133405364528</v>
+        <v>25.02867424505792</v>
       </c>
       <c r="G3">
-        <v>35.2015840284863</v>
+        <v>35.7944288003733</v>
       </c>
       <c r="H3">
-        <v>15.50583129137171</v>
+        <v>11.00677766065184</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.39447410288986</v>
+        <v>19.84144918939145</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.347152538532</v>
+        <v>17.69951406272094</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.645541737644154</v>
+        <v>6.378403104244105</v>
       </c>
       <c r="D4">
-        <v>5.01445172421634</v>
+        <v>3.431680830482885</v>
       </c>
       <c r="E4">
-        <v>10.35945688099465</v>
+        <v>9.614251159836879</v>
       </c>
       <c r="F4">
-        <v>27.64905176804063</v>
+        <v>24.34362120626234</v>
       </c>
       <c r="G4">
-        <v>35.04295172079882</v>
+        <v>34.65109096145842</v>
       </c>
       <c r="H4">
-        <v>15.52924793218144</v>
+        <v>10.89696998963369</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.06341005362698</v>
+        <v>18.93791012063859</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.16689637838861</v>
+        <v>16.86867159272433</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.602705024714634</v>
+        <v>6.239477624217756</v>
       </c>
       <c r="D5">
-        <v>5.019877539076165</v>
+        <v>3.454080815060987</v>
       </c>
       <c r="E5">
-        <v>10.34178744332683</v>
+        <v>9.47859373733977</v>
       </c>
       <c r="F5">
-        <v>27.62644938766646</v>
+        <v>24.06831322178978</v>
       </c>
       <c r="G5">
-        <v>34.98247488134486</v>
+        <v>34.18983085237047</v>
       </c>
       <c r="H5">
-        <v>15.53990236918454</v>
+        <v>10.85548897182561</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.9266404698908</v>
+        <v>18.55822061839206</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.09384459039849</v>
+        <v>16.51992088457093</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.595577051027535</v>
+        <v>6.216158360945291</v>
       </c>
       <c r="D6">
-        <v>5.020786743458962</v>
+        <v>3.457809496873106</v>
       </c>
       <c r="E6">
-        <v>10.33891262976668</v>
+        <v>9.456090878279982</v>
       </c>
       <c r="F6">
-        <v>27.62286430446181</v>
+        <v>24.02283940482246</v>
       </c>
       <c r="G6">
-        <v>34.97268584087993</v>
+        <v>34.11353565520787</v>
       </c>
       <c r="H6">
-        <v>15.54173850351284</v>
+        <v>10.84879476500017</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.90382440756847</v>
+        <v>18.49447709759308</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.08174182828547</v>
+        <v>16.4613930484527</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.644965082115554</v>
+        <v>6.376546282935252</v>
       </c>
       <c r="D7">
-        <v>5.014524345904699</v>
+        <v>3.431982321321392</v>
       </c>
       <c r="E7">
-        <v>10.3592146251435</v>
+        <v>9.612420188034292</v>
       </c>
       <c r="F7">
-        <v>27.64873568477811</v>
+        <v>24.3398923358542</v>
       </c>
       <c r="G7">
-        <v>35.0421191713755</v>
+        <v>34.6448507001404</v>
       </c>
       <c r="H7">
-        <v>15.52938712782382</v>
+        <v>10.8963974978495</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.06157275761199</v>
+        <v>18.93283612943531</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.16590940363769</v>
+        <v>16.86400957864686</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.860182722848325</v>
+        <v>7.048255400564868</v>
       </c>
       <c r="D8">
-        <v>4.988084759980606</v>
+        <v>3.319211738678682</v>
       </c>
       <c r="E8">
-        <v>10.4573125119656</v>
+        <v>10.30471409596048</v>
       </c>
       <c r="F8">
-        <v>27.78726122191241</v>
+        <v>25.77215324620722</v>
       </c>
       <c r="G8">
-        <v>35.38495032769522</v>
+        <v>37.02905140084932</v>
       </c>
       <c r="H8">
-        <v>15.48466185658723</v>
+        <v>11.13545334373836</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.74079103139953</v>
+        <v>20.76659420085645</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.54059306191339</v>
+        <v>18.55167535444054</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.267738042052621</v>
+        <v>8.240119282964825</v>
       </c>
       <c r="D9">
-        <v>4.940488939000141</v>
+        <v>3.101035236591674</v>
       </c>
       <c r="E9">
-        <v>10.67920840921199</v>
+        <v>11.66533711809779</v>
       </c>
       <c r="F9">
-        <v>28.14548059683442</v>
+        <v>28.68582491826284</v>
       </c>
       <c r="G9">
-        <v>36.1839983430492</v>
+        <v>41.82119511987981</v>
       </c>
       <c r="H9">
-        <v>15.43249172665903</v>
+        <v>11.71600825817625</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.99910741710948</v>
+        <v>24.00819722297146</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.28037867574993</v>
+        <v>21.55079171930825</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.5546926282475</v>
+        <v>9.043698459968676</v>
       </c>
       <c r="D10">
-        <v>4.908072414760643</v>
+        <v>2.941291780336878</v>
       </c>
       <c r="E10">
-        <v>10.85910260573028</v>
+        <v>12.7937359148833</v>
       </c>
       <c r="F10">
-        <v>28.46012086738486</v>
+        <v>30.88327090414231</v>
       </c>
       <c r="G10">
-        <v>36.84364840893138</v>
+        <v>45.4014932941803</v>
       </c>
       <c r="H10">
-        <v>15.41614870333955</v>
+        <v>12.21728533909712</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.86909682558553</v>
+        <v>26.18230086966811</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.82114963420917</v>
+        <v>23.57551943613812</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.681877156237681</v>
+        <v>9.394676670870984</v>
       </c>
       <c r="D11">
-        <v>4.893871097228104</v>
+        <v>2.86848189510456</v>
       </c>
       <c r="E11">
-        <v>10.94432587644875</v>
+        <v>13.34394693890651</v>
       </c>
       <c r="F11">
-        <v>28.61405297996716</v>
+        <v>31.89523711055348</v>
       </c>
       <c r="G11">
-        <v>37.15832541869133</v>
+        <v>47.04355934590059</v>
       </c>
       <c r="H11">
-        <v>15.41354719884832</v>
+        <v>12.46300242038473</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.25140000652258</v>
+        <v>27.12854988087405</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.06539615097843</v>
+        <v>24.46050998110776</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.729510222182395</v>
+        <v>9.52558502010625</v>
       </c>
       <c r="D12">
-        <v>4.888571194436159</v>
+        <v>2.840871899434271</v>
       </c>
       <c r="E12">
-        <v>10.97705952591981</v>
+        <v>13.55054157555888</v>
       </c>
       <c r="F12">
-        <v>28.67385774059125</v>
+        <v>32.28032495219628</v>
       </c>
       <c r="G12">
-        <v>37.27947594673374</v>
+        <v>47.66752056100305</v>
       </c>
       <c r="H12">
-        <v>15.41326105425813</v>
+        <v>12.55872008555166</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.39411895405599</v>
+        <v>27.48093469583531</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.15754221056843</v>
+        <v>24.79070172384096</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.71927580344021</v>
+        <v>9.497478850798103</v>
       </c>
       <c r="D13">
-        <v>4.889709170673998</v>
+        <v>2.846820167276786</v>
       </c>
       <c r="E13">
-        <v>10.96998964878853</v>
+        <v>13.50612196142353</v>
       </c>
       <c r="F13">
-        <v>28.66091104365029</v>
+        <v>32.19730316398359</v>
       </c>
       <c r="G13">
-        <v>37.25329735459663</v>
+        <v>47.53303852935719</v>
       </c>
       <c r="H13">
-        <v>15.41329153491908</v>
+        <v>12.53798465031978</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.36347476816032</v>
+        <v>27.40530283993772</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.13771366793912</v>
+        <v>24.71980416733475</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.685806807495501</v>
+        <v>9.405486064788985</v>
       </c>
       <c r="D14">
-        <v>4.893433514410085</v>
+        <v>2.866211266463645</v>
       </c>
       <c r="E14">
-        <v>10.9470097972781</v>
+        <v>13.36097742795955</v>
       </c>
       <c r="F14">
-        <v>28.61894304857505</v>
+        <v>31.92687993498165</v>
       </c>
       <c r="G14">
-        <v>37.16825332965002</v>
+        <v>47.09484811435634</v>
       </c>
       <c r="H14">
-        <v>15.41350962779007</v>
+        <v>12.47082288249241</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.26318329147532</v>
+        <v>27.15765852462587</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.07298448699154</v>
+        <v>24.48777240666084</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.665235897227967</v>
+        <v>9.348880463650751</v>
       </c>
       <c r="D15">
-        <v>4.895724901587974</v>
+        <v>2.878083385248792</v>
       </c>
       <c r="E15">
-        <v>10.93299328311882</v>
+        <v>13.27185050638933</v>
       </c>
       <c r="F15">
-        <v>28.59343238059135</v>
+        <v>31.76148723780233</v>
       </c>
       <c r="G15">
-        <v>37.11641709587658</v>
+        <v>46.82673285648004</v>
       </c>
       <c r="H15">
-        <v>15.41373435449048</v>
+        <v>12.43003607376941</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.20148160561455</v>
+        <v>27.00520245700817</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.03328842200239</v>
+        <v>24.34501156988242</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.54630922783429</v>
+        <v>9.020475945510887</v>
       </c>
       <c r="D16">
-        <v>4.909011425334687</v>
+        <v>2.946045607487976</v>
       </c>
       <c r="E16">
-        <v>10.85359906971116</v>
+        <v>12.75751922770117</v>
       </c>
       <c r="F16">
-        <v>28.45027512648164</v>
+        <v>30.81739151502881</v>
       </c>
       <c r="G16">
-        <v>36.82336800814757</v>
+        <v>45.29446482514204</v>
       </c>
       <c r="H16">
-        <v>15.41641632538449</v>
+        <v>12.20159355239742</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.84383134215997</v>
+        <v>26.11961815484068</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.80514424160112</v>
+        <v>23.51697825515558</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.472457812792284</v>
+        <v>8.815343095417346</v>
       </c>
       <c r="D17">
-        <v>4.917301493425963</v>
+        <v>2.987688123760795</v>
       </c>
       <c r="E17">
-        <v>10.80574317917611</v>
+        <v>12.43861020137202</v>
       </c>
       <c r="F17">
-        <v>28.36519254879121</v>
+        <v>30.2414234699233</v>
       </c>
       <c r="G17">
-        <v>36.64725449129129</v>
+        <v>44.35799990097477</v>
       </c>
       <c r="H17">
-        <v>15.41930250245697</v>
+        <v>12.06606714366766</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.62088998440122</v>
+        <v>25.56552991723672</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.66466874167432</v>
+        <v>22.99993831296853</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.429667316516912</v>
+        <v>8.695978028613823</v>
       </c>
       <c r="D18">
-        <v>4.922121063438701</v>
+        <v>3.011627402182623</v>
       </c>
       <c r="E18">
-        <v>10.77853830612198</v>
+        <v>12.25386836212506</v>
       </c>
       <c r="F18">
-        <v>28.31727451797794</v>
+        <v>29.91129125478612</v>
       </c>
       <c r="G18">
-        <v>36.54733976466785</v>
+        <v>43.82060524766177</v>
       </c>
       <c r="H18">
-        <v>15.42141725629032</v>
+        <v>11.98977221728428</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.49139900580424</v>
+        <v>25.24279404636442</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.58371121555008</v>
+        <v>22.69913893661063</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.415126929429929</v>
+        <v>8.655323607755589</v>
       </c>
       <c r="D19">
-        <v>4.923761722351537</v>
+        <v>3.019731301187894</v>
       </c>
       <c r="E19">
-        <v>10.76938302883797</v>
+        <v>12.19108599814249</v>
       </c>
       <c r="F19">
-        <v>28.30122647365365</v>
+        <v>29.79970993679312</v>
       </c>
       <c r="G19">
-        <v>36.51375082361067</v>
+        <v>43.63886066420103</v>
       </c>
       <c r="H19">
-        <v>15.42221123990687</v>
+        <v>11.96422086893246</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.44734278536472</v>
+        <v>25.13282154897767</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.5562758568201</v>
+        <v>22.5967002992382</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.480352184949506</v>
+        <v>8.83732179739922</v>
       </c>
       <c r="D20">
-        <v>4.916413691974392</v>
+        <v>2.983256630684966</v>
       </c>
       <c r="E20">
-        <v>10.81080452603761</v>
+        <v>12.47269306361611</v>
       </c>
       <c r="F20">
-        <v>28.37414452032138</v>
+        <v>30.30261684523438</v>
       </c>
       <c r="G20">
-        <v>36.66585991647314</v>
+        <v>44.45755925677661</v>
       </c>
       <c r="H20">
-        <v>15.41894817358552</v>
+        <v>12.08032186445569</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.64475386840001</v>
+        <v>25.62493013560859</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.67963981721618</v>
+        <v>23.05532946686537</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.695652165269989</v>
+        <v>9.432560023992139</v>
       </c>
       <c r="D21">
-        <v>4.892337476540636</v>
+        <v>2.860516801672065</v>
       </c>
       <c r="E21">
-        <v>10.95374722449255</v>
+        <v>13.40365564635368</v>
       </c>
       <c r="F21">
-        <v>28.63122930738495</v>
+        <v>32.00625750672963</v>
       </c>
       <c r="G21">
-        <v>37.19317974024659</v>
+        <v>47.22349439195924</v>
       </c>
       <c r="H21">
-        <v>15.41342656905441</v>
+        <v>12.49047637737156</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.2926978360271</v>
+        <v>27.23055704564915</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.09200708926662</v>
+        <v>24.55605753320488</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.833261995476451</v>
+        <v>9.809980391819984</v>
       </c>
       <c r="D22">
-        <v>4.877055668516155</v>
+        <v>2.780069507567511</v>
       </c>
       <c r="E22">
-        <v>11.04984548787285</v>
+        <v>14.00197533255559</v>
       </c>
       <c r="F22">
-        <v>28.80805305536169</v>
+        <v>33.13075231532014</v>
       </c>
       <c r="G22">
-        <v>37.54935349740733</v>
+        <v>49.08150868806982</v>
       </c>
       <c r="H22">
-        <v>15.41389359106364</v>
+        <v>12.77416895228013</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.70416907378566</v>
+        <v>28.24542617622928</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.3594636580484</v>
+        <v>25.50824535035338</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.760114897520202</v>
+        <v>9.609571115710217</v>
       </c>
       <c r="D23">
-        <v>4.88517055329105</v>
+        <v>2.82303173151251</v>
       </c>
       <c r="E23">
-        <v>10.99831990277388</v>
+        <v>13.68348282561148</v>
       </c>
       <c r="F23">
-        <v>28.71288724592813</v>
+        <v>32.5295155084374</v>
       </c>
       <c r="G23">
-        <v>37.35823869862158</v>
+        <v>48.07352359026351</v>
       </c>
       <c r="H23">
-        <v>15.41327022344375</v>
+        <v>12.62128049721824</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.48569114790169</v>
+        <v>27.70685184139038</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.21693393928913</v>
+        <v>25.00257247534757</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.476784170865815</v>
+        <v>8.827389692044536</v>
       </c>
       <c r="D24">
-        <v>4.916814900296074</v>
+        <v>2.985260112143606</v>
       </c>
       <c r="E24">
-        <v>10.80851532946083</v>
+        <v>12.45728856883808</v>
       </c>
       <c r="F24">
-        <v>28.37009422524315</v>
+        <v>30.2749482136659</v>
       </c>
       <c r="G24">
-        <v>36.65744423617966</v>
+        <v>44.41254539842772</v>
       </c>
       <c r="H24">
-        <v>15.41910694724643</v>
+        <v>12.07387226549863</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.63396910598044</v>
+        <v>25.59808834202182</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.67287199826606</v>
+        <v>23.03029819049007</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.159434407370208</v>
+        <v>7.93068165682734</v>
       </c>
       <c r="D25">
-        <v>4.952913842013427</v>
+        <v>3.159870551836222</v>
       </c>
       <c r="E25">
-        <v>10.6161283301143</v>
+        <v>11.29723227782791</v>
       </c>
       <c r="F25">
-        <v>28.03942208005284</v>
+        <v>27.88734977328184</v>
       </c>
       <c r="G25">
-        <v>35.95471248876668</v>
+        <v>40.51398010287494</v>
       </c>
       <c r="H25">
-        <v>15.44276557783166</v>
+        <v>11.54629932363503</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.66765119747791</v>
+        <v>23.16838689957529</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.08032061652337</v>
+        <v>20.77167022876949</v>
       </c>
       <c r="N25">
         <v>0</v>
